--- a/data/city/v1.xlsx
+++ b/data/city/v1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26620716-4EE8-E543-8739-5EE83D17D6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23580" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="city" sheetId="2" r:id="rId4"/>
+    <sheet name="city" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1457">
   <si>
     <t>id</t>
   </si>
@@ -4390,27 +4391,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -4429,10 +4430,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4692,14 +4701,17 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4722,7 +4734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4745,7 +4757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4768,7 +4780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4791,7 +4803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4814,7 +4826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4837,7 +4849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4883,7 +4895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -4906,7 +4918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -4929,7 +4941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4948,11 +4960,8 @@
       <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4975,7 +4984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -4998,7 +5007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -5021,7 +5030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5044,7 +5053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -5067,7 +5076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="15">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -5113,7 +5122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5136,7 +5145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -5159,7 +5168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -5182,7 +5191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -5205,7 +5214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -5228,7 +5237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -5251,7 +5260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -5274,7 +5283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -5297,7 +5306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -5320,7 +5329,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -5343,7 +5352,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -5366,7 +5375,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -5389,7 +5398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -5412,7 +5421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5458,7 +5467,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5481,7 +5490,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -5504,7 +5513,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -5527,7 +5536,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -5573,7 +5582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -5596,7 +5605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" ht="15">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -5619,7 +5628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -5642,7 +5651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" ht="15">
       <c r="A42" t="s">
         <v>177</v>
       </c>
@@ -5665,7 +5674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -5688,7 +5697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" t="s">
         <v>185</v>
       </c>
@@ -5711,7 +5720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -5734,7 +5743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" t="s">
         <v>193</v>
       </c>
@@ -5757,7 +5766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" ht="15">
       <c r="A47" t="s">
         <v>197</v>
       </c>
@@ -5780,7 +5789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" ht="15">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -5803,7 +5812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" t="s">
         <v>209</v>
       </c>
@@ -5849,7 +5858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" t="s">
         <v>213</v>
       </c>
@@ -5872,7 +5881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -5895,7 +5904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" ht="15">
       <c r="A53" t="s">
         <v>223</v>
       </c>
@@ -5918,7 +5927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" t="s">
         <v>227</v>
       </c>
@@ -5941,7 +5950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="15">
       <c r="A55" t="s">
         <v>231</v>
       </c>
@@ -5964,7 +5973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" ht="15">
       <c r="A56" t="s">
         <v>235</v>
       </c>
@@ -5987,7 +5996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" ht="15">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -6010,7 +6019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" t="s">
         <v>243</v>
       </c>
@@ -6033,7 +6042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" t="s">
         <v>247</v>
       </c>
@@ -6056,7 +6065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" t="s">
         <v>251</v>
       </c>
@@ -6079,7 +6088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" ht="15">
       <c r="A61" t="s">
         <v>255</v>
       </c>
@@ -6102,7 +6111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" ht="15">
       <c r="A62" t="s">
         <v>261</v>
       </c>
@@ -6125,7 +6134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" t="s">
         <v>265</v>
       </c>
@@ -6148,7 +6157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" ht="15">
       <c r="A64" t="s">
         <v>269</v>
       </c>
@@ -6171,7 +6180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" ht="15">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -6194,7 +6203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" ht="15">
       <c r="A66" t="s">
         <v>277</v>
       </c>
@@ -6217,7 +6226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" ht="15">
       <c r="A67" t="s">
         <v>281</v>
       </c>
@@ -6240,7 +6249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" ht="15">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -6263,7 +6272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" ht="15">
       <c r="A69" t="s">
         <v>289</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" ht="15">
       <c r="A70" t="s">
         <v>293</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" ht="15">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -6332,7 +6341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" ht="15">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -6355,7 +6364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" ht="15">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -6378,7 +6387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" ht="15">
       <c r="A74" t="s">
         <v>307</v>
       </c>
@@ -6401,7 +6410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" ht="15">
       <c r="A75" t="s">
         <v>311</v>
       </c>
@@ -6424,7 +6433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" ht="15">
       <c r="A76" t="s">
         <v>316</v>
       </c>
@@ -6447,7 +6456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" ht="15">
       <c r="A77" t="s">
         <v>320</v>
       </c>
@@ -6470,7 +6479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" ht="15">
       <c r="A78" t="s">
         <v>324</v>
       </c>
@@ -6493,7 +6502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" ht="15">
       <c r="A79" t="s">
         <v>328</v>
       </c>
@@ -6516,7 +6525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" ht="15">
       <c r="A80" t="s">
         <v>332</v>
       </c>
@@ -6539,7 +6548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" ht="15">
       <c r="A81" t="s">
         <v>336</v>
       </c>
@@ -6562,7 +6571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" ht="15">
       <c r="A82" t="s">
         <v>340</v>
       </c>
@@ -6585,7 +6594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" ht="15">
       <c r="A83" t="s">
         <v>344</v>
       </c>
@@ -6608,7 +6617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" ht="15">
       <c r="A84" t="s">
         <v>348</v>
       </c>
@@ -6631,7 +6640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" ht="15">
       <c r="A85" t="s">
         <v>352</v>
       </c>
@@ -6654,7 +6663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" t="s">
         <v>356</v>
       </c>
@@ -6677,7 +6686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" ht="15">
       <c r="A87" t="s">
         <v>360</v>
       </c>
@@ -6700,7 +6709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" ht="15">
       <c r="A88" t="s">
         <v>364</v>
       </c>
@@ -6723,7 +6732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" ht="15">
       <c r="A89" t="s">
         <v>370</v>
       </c>
@@ -6746,7 +6755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" ht="15">
       <c r="A90" t="s">
         <v>374</v>
       </c>
@@ -6769,7 +6778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" ht="15">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -6792,7 +6801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" ht="15">
       <c r="A92" t="s">
         <v>382</v>
       </c>
@@ -6815,7 +6824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" ht="15">
       <c r="A93" t="s">
         <v>386</v>
       </c>
@@ -6838,7 +6847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" ht="15">
       <c r="A94" t="s">
         <v>390</v>
       </c>
@@ -6861,7 +6870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" ht="15">
       <c r="A95" t="s">
         <v>394</v>
       </c>
@@ -6884,7 +6893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" ht="15">
       <c r="A96" t="s">
         <v>398</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" ht="15">
       <c r="A97" t="s">
         <v>402</v>
       </c>
@@ -6930,7 +6939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" ht="15">
       <c r="A98" t="s">
         <v>406</v>
       </c>
@@ -6953,7 +6962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" ht="15">
       <c r="A99" t="s">
         <v>410</v>
       </c>
@@ -6976,7 +6985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" ht="15">
       <c r="A100" t="s">
         <v>416</v>
       </c>
@@ -6999,7 +7008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" ht="15">
       <c r="A101" t="s">
         <v>420</v>
       </c>
@@ -7022,7 +7031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" ht="15">
       <c r="A102" t="s">
         <v>424</v>
       </c>
@@ -7045,7 +7054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" ht="15">
       <c r="A103" t="s">
         <v>428</v>
       </c>
@@ -7068,7 +7077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" ht="15">
       <c r="A104" t="s">
         <v>432</v>
       </c>
@@ -7091,7 +7100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" ht="15">
       <c r="A105" t="s">
         <v>436</v>
       </c>
@@ -7114,7 +7123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" ht="15">
       <c r="A106" t="s">
         <v>440</v>
       </c>
@@ -7137,7 +7146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" ht="15">
       <c r="A107" t="s">
         <v>444</v>
       </c>
@@ -7160,7 +7169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" ht="15">
       <c r="A108" t="s">
         <v>448</v>
       </c>
@@ -7183,7 +7192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" ht="15">
       <c r="A109" t="s">
         <v>452</v>
       </c>
@@ -7206,7 +7215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" ht="15">
       <c r="A110" t="s">
         <v>456</v>
       </c>
@@ -7229,7 +7238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" ht="15">
       <c r="A111" t="s">
         <v>460</v>
       </c>
@@ -7252,7 +7261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" ht="15">
       <c r="A112" t="s">
         <v>464</v>
       </c>
@@ -7275,7 +7284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" ht="15">
       <c r="A113" t="s">
         <v>467</v>
       </c>
@@ -7298,7 +7307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" ht="15">
       <c r="A114" t="s">
         <v>471</v>
       </c>
@@ -7321,7 +7330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" ht="15">
       <c r="A115" t="s">
         <v>475</v>
       </c>
@@ -7344,7 +7353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" ht="15">
       <c r="A116" t="s">
         <v>481</v>
       </c>
@@ -7367,7 +7376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" ht="15">
       <c r="A117" t="s">
         <v>485</v>
       </c>
@@ -7390,7 +7399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" ht="15">
       <c r="A118" t="s">
         <v>489</v>
       </c>
@@ -7413,7 +7422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" ht="15">
       <c r="A119" t="s">
         <v>493</v>
       </c>
@@ -7436,7 +7445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" ht="15">
       <c r="A120" t="s">
         <v>497</v>
       </c>
@@ -7459,7 +7468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" ht="15">
       <c r="A121" t="s">
         <v>501</v>
       </c>
@@ -7482,7 +7491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" ht="15">
       <c r="A122" t="s">
         <v>505</v>
       </c>
@@ -7505,7 +7514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" ht="15">
       <c r="A123" t="s">
         <v>509</v>
       </c>
@@ -7528,7 +7537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" ht="15">
       <c r="A124" t="s">
         <v>513</v>
       </c>
@@ -7551,7 +7560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" ht="15">
       <c r="A125" t="s">
         <v>519</v>
       </c>
@@ -7574,7 +7583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" ht="15">
       <c r="A126" t="s">
         <v>523</v>
       </c>
@@ -7597,7 +7606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" ht="15">
       <c r="A127" t="s">
         <v>527</v>
       </c>
@@ -7620,7 +7629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" ht="15">
       <c r="A128" t="s">
         <v>531</v>
       </c>
@@ -7643,7 +7652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" ht="15">
       <c r="A129" t="s">
         <v>535</v>
       </c>
@@ -7666,7 +7675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" ht="15">
       <c r="A130" t="s">
         <v>539</v>
       </c>
@@ -7689,7 +7698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" ht="15">
       <c r="A131" t="s">
         <v>543</v>
       </c>
@@ -7712,7 +7721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" ht="15">
       <c r="A132" t="s">
         <v>547</v>
       </c>
@@ -7735,7 +7744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" ht="15">
       <c r="A133" t="s">
         <v>551</v>
       </c>
@@ -7758,7 +7767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" ht="15">
       <c r="A134" t="s">
         <v>555</v>
       </c>
@@ -7781,7 +7790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" ht="15">
       <c r="A135" t="s">
         <v>559</v>
       </c>
@@ -7804,7 +7813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" ht="15">
       <c r="A136" t="s">
         <v>565</v>
       </c>
@@ -7827,7 +7836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" ht="15">
       <c r="A137" t="s">
         <v>569</v>
       </c>
@@ -7850,7 +7859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" ht="15">
       <c r="A138" t="s">
         <v>573</v>
       </c>
@@ -7873,7 +7882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" ht="15">
       <c r="A139" t="s">
         <v>577</v>
       </c>
@@ -7896,7 +7905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" ht="15">
       <c r="A140" t="s">
         <v>581</v>
       </c>
@@ -7919,7 +7928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" ht="15">
       <c r="A141" t="s">
         <v>585</v>
       </c>
@@ -7942,7 +7951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" ht="15">
       <c r="A142" t="s">
         <v>589</v>
       </c>
@@ -7965,7 +7974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" ht="15">
       <c r="A143" t="s">
         <v>593</v>
       </c>
@@ -7988,7 +7997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" ht="15">
       <c r="A144" t="s">
         <v>597</v>
       </c>
@@ -8011,7 +8020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" ht="15">
       <c r="A145" t="s">
         <v>601</v>
       </c>
@@ -8034,7 +8043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" ht="15">
       <c r="A146" t="s">
         <v>605</v>
       </c>
@@ -8057,7 +8066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" ht="15">
       <c r="A147" t="s">
         <v>609</v>
       </c>
@@ -8080,7 +8089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" ht="15">
       <c r="A148" t="s">
         <v>613</v>
       </c>
@@ -8103,7 +8112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" ht="15">
       <c r="A149" t="s">
         <v>617</v>
       </c>
@@ -8126,7 +8135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" ht="15">
       <c r="A150" t="s">
         <v>621</v>
       </c>
@@ -8149,7 +8158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" ht="15">
       <c r="A151" t="s">
         <v>625</v>
       </c>
@@ -8172,7 +8181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" ht="15">
       <c r="A152" t="s">
         <v>629</v>
       </c>
@@ -8195,7 +8204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" ht="15">
       <c r="A153" t="s">
         <v>635</v>
       </c>
@@ -8218,7 +8227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" ht="15">
       <c r="A154" t="s">
         <v>639</v>
       </c>
@@ -8241,7 +8250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" ht="15">
       <c r="A155" t="s">
         <v>643</v>
       </c>
@@ -8264,7 +8273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" ht="15">
       <c r="A156" t="s">
         <v>647</v>
       </c>
@@ -8287,7 +8296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" ht="15">
       <c r="A157" t="s">
         <v>651</v>
       </c>
@@ -8310,7 +8319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" ht="15">
       <c r="A158" t="s">
         <v>655</v>
       </c>
@@ -8333,7 +8342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" ht="15">
       <c r="A159" t="s">
         <v>659</v>
       </c>
@@ -8356,7 +8365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" ht="15">
       <c r="A160" t="s">
         <v>663</v>
       </c>
@@ -8379,7 +8388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" ht="15">
       <c r="A161" t="s">
         <v>667</v>
       </c>
@@ -8402,7 +8411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" ht="15">
       <c r="A162" t="s">
         <v>671</v>
       </c>
@@ -8425,7 +8434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" ht="15">
       <c r="A163" t="s">
         <v>675</v>
       </c>
@@ -8448,7 +8457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" ht="15">
       <c r="A164" t="s">
         <v>679</v>
       </c>
@@ -8471,7 +8480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" ht="15">
       <c r="A165" t="s">
         <v>683</v>
       </c>
@@ -8494,7 +8503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" ht="15">
       <c r="A166" t="s">
         <v>687</v>
       </c>
@@ -8517,7 +8526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" ht="15">
       <c r="A167" t="s">
         <v>691</v>
       </c>
@@ -8540,7 +8549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" ht="15">
       <c r="A168" t="s">
         <v>695</v>
       </c>
@@ -8563,7 +8572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" ht="15">
       <c r="A169" t="s">
         <v>699</v>
       </c>
@@ -8586,7 +8595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" ht="15">
       <c r="A170" t="s">
         <v>701</v>
       </c>
@@ -8609,7 +8618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" ht="15">
       <c r="A171" t="s">
         <v>706</v>
       </c>
@@ -8632,7 +8641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" ht="15">
       <c r="A172" t="s">
         <v>710</v>
       </c>
@@ -8655,7 +8664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" ht="15">
       <c r="A173" t="s">
         <v>714</v>
       </c>
@@ -8678,7 +8687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" ht="15">
       <c r="A174" t="s">
         <v>718</v>
       </c>
@@ -8701,7 +8710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" ht="15">
       <c r="A175" t="s">
         <v>722</v>
       </c>
@@ -8724,7 +8733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" ht="15">
       <c r="A176" t="s">
         <v>726</v>
       </c>
@@ -8747,7 +8756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" ht="15">
       <c r="A177" t="s">
         <v>730</v>
       </c>
@@ -8770,7 +8779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" ht="15">
       <c r="A178" t="s">
         <v>734</v>
       </c>
@@ -8793,7 +8802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" ht="15">
       <c r="A179" t="s">
         <v>738</v>
       </c>
@@ -8816,7 +8825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" ht="15">
       <c r="A180" t="s">
         <v>742</v>
       </c>
@@ -8839,7 +8848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" ht="15">
       <c r="A181" t="s">
         <v>746</v>
       </c>
@@ -8862,7 +8871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" ht="15">
       <c r="A182" t="s">
         <v>750</v>
       </c>
@@ -8885,7 +8894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" ht="15">
       <c r="A183" t="s">
         <v>754</v>
       </c>
@@ -8908,7 +8917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" ht="15">
       <c r="A184" t="s">
         <v>755</v>
       </c>
@@ -8931,7 +8940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" ht="15">
       <c r="A185" t="s">
         <v>761</v>
       </c>
@@ -8954,7 +8963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" ht="15">
       <c r="A186" t="s">
         <v>765</v>
       </c>
@@ -8977,7 +8986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" ht="15">
       <c r="A187" t="s">
         <v>769</v>
       </c>
@@ -9000,7 +9009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" ht="15">
       <c r="A188" t="s">
         <v>773</v>
       </c>
@@ -9023,7 +9032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" ht="15">
       <c r="A189" t="s">
         <v>777</v>
       </c>
@@ -9046,7 +9055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" ht="15">
       <c r="A190" t="s">
         <v>781</v>
       </c>
@@ -9069,7 +9078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" ht="15">
       <c r="A191" t="s">
         <v>785</v>
       </c>
@@ -9092,7 +9101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" ht="15">
       <c r="A192" t="s">
         <v>789</v>
       </c>
@@ -9115,7 +9124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" ht="15">
       <c r="A193" t="s">
         <v>793</v>
       </c>
@@ -9138,7 +9147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" ht="15">
       <c r="A194" t="s">
         <v>797</v>
       </c>
@@ -9161,7 +9170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" ht="15">
       <c r="A195" t="s">
         <v>801</v>
       </c>
@@ -9184,7 +9193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" ht="15">
       <c r="A196" t="s">
         <v>805</v>
       </c>
@@ -9207,7 +9216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" ht="15">
       <c r="A197" t="s">
         <v>809</v>
       </c>
@@ -9230,7 +9239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" ht="15">
       <c r="A198" t="s">
         <v>813</v>
       </c>
@@ -9253,7 +9262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" ht="15">
       <c r="A199" t="s">
         <v>818</v>
       </c>
@@ -9276,7 +9285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" ht="15">
       <c r="A200" t="s">
         <v>822</v>
       </c>
@@ -9299,7 +9308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" ht="15">
       <c r="A201" t="s">
         <v>826</v>
       </c>
@@ -9322,7 +9331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" ht="15">
       <c r="A202" t="s">
         <v>830</v>
       </c>
@@ -9345,7 +9354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" ht="15">
       <c r="A203" t="s">
         <v>834</v>
       </c>
@@ -9368,7 +9377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" ht="15">
       <c r="A204" t="s">
         <v>838</v>
       </c>
@@ -9391,7 +9400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" ht="15">
       <c r="A205" t="s">
         <v>842</v>
       </c>
@@ -9414,7 +9423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" ht="15">
       <c r="A206" t="s">
         <v>846</v>
       </c>
@@ -9437,7 +9446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" ht="15">
       <c r="A207" t="s">
         <v>850</v>
       </c>
@@ -9460,7 +9469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" ht="15">
       <c r="A208" t="s">
         <v>854</v>
       </c>
@@ -9483,7 +9492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" ht="15">
       <c r="A209" t="s">
         <v>858</v>
       </c>
@@ -9506,7 +9515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" ht="15">
       <c r="A210" t="s">
         <v>862</v>
       </c>
@@ -9529,7 +9538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" ht="15">
       <c r="A211" t="s">
         <v>866</v>
       </c>
@@ -9552,7 +9561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" ht="15">
       <c r="A212" t="s">
         <v>870</v>
       </c>
@@ -9575,7 +9584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" ht="15">
       <c r="A213" t="s">
         <v>874</v>
       </c>
@@ -9598,7 +9607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" ht="15">
       <c r="A214" t="s">
         <v>878</v>
       </c>
@@ -9621,7 +9630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" ht="15">
       <c r="A215" t="s">
         <v>882</v>
       </c>
@@ -9644,7 +9653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" ht="15">
       <c r="A216" t="s">
         <v>886</v>
       </c>
@@ -9667,7 +9676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" ht="15">
       <c r="A217" t="s">
         <v>890</v>
       </c>
@@ -9690,7 +9699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" ht="15">
       <c r="A218" t="s">
         <v>894</v>
       </c>
@@ -9713,7 +9722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" ht="15">
       <c r="A219" t="s">
         <v>898</v>
       </c>
@@ -9736,7 +9745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" ht="15">
       <c r="A220" t="s">
         <v>904</v>
       </c>
@@ -9759,7 +9768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" ht="15">
       <c r="A221" t="s">
         <v>908</v>
       </c>
@@ -9782,7 +9791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" ht="15">
       <c r="A222" t="s">
         <v>912</v>
       </c>
@@ -9805,7 +9814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" ht="15">
       <c r="A223" t="s">
         <v>916</v>
       </c>
@@ -9828,7 +9837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" ht="15">
       <c r="A224" t="s">
         <v>920</v>
       </c>
@@ -9851,7 +9860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" ht="15">
       <c r="A225" t="s">
         <v>924</v>
       </c>
@@ -9874,7 +9883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" ht="15">
       <c r="A226" t="s">
         <v>928</v>
       </c>
@@ -9897,7 +9906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" ht="15">
       <c r="A227" t="s">
         <v>932</v>
       </c>
@@ -9920,7 +9929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" ht="15">
       <c r="A228" t="s">
         <v>935</v>
       </c>
@@ -9943,7 +9952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" ht="15">
       <c r="A229" t="s">
         <v>939</v>
       </c>
@@ -9966,7 +9975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" ht="15">
       <c r="A230" t="s">
         <v>943</v>
       </c>
@@ -9989,7 +9998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" ht="15">
       <c r="A231" t="s">
         <v>947</v>
       </c>
@@ -10012,7 +10021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" ht="15">
       <c r="A232" t="s">
         <v>951</v>
       </c>
@@ -10035,7 +10044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" ht="15">
       <c r="A233" t="s">
         <v>955</v>
       </c>
@@ -10058,7 +10067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" ht="15">
       <c r="A234" t="s">
         <v>961</v>
       </c>
@@ -10081,7 +10090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" ht="15">
       <c r="A235" t="s">
         <v>965</v>
       </c>
@@ -10104,7 +10113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" ht="15">
       <c r="A236" t="s">
         <v>969</v>
       </c>
@@ -10127,7 +10136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" ht="15">
       <c r="A237" t="s">
         <v>973</v>
       </c>
@@ -10150,7 +10159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" ht="15">
       <c r="A238" t="s">
         <v>974</v>
       </c>
@@ -10173,7 +10182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" ht="15">
       <c r="A239" t="s">
         <v>978</v>
       </c>
@@ -10196,7 +10205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" ht="15">
       <c r="A240" t="s">
         <v>979</v>
       </c>
@@ -10219,7 +10228,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" ht="15">
       <c r="A241" t="s">
         <v>985</v>
       </c>
@@ -10242,7 +10251,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" ht="15">
       <c r="A242" t="s">
         <v>989</v>
       </c>
@@ -10265,7 +10274,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" ht="15">
       <c r="A243" t="s">
         <v>993</v>
       </c>
@@ -10288,7 +10297,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" ht="15">
       <c r="A244" t="s">
         <v>997</v>
       </c>
@@ -10311,7 +10320,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" ht="15">
       <c r="A245" t="s">
         <v>1001</v>
       </c>
@@ -10334,7 +10343,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" ht="15">
       <c r="A246" t="s">
         <v>1005</v>
       </c>
@@ -10357,7 +10366,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7" ht="15">
       <c r="A247" t="s">
         <v>1009</v>
       </c>
@@ -10380,7 +10389,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" ht="15">
       <c r="A248" t="s">
         <v>1013</v>
       </c>
@@ -10403,7 +10412,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" ht="15">
       <c r="A249" t="s">
         <v>1017</v>
       </c>
@@ -10426,7 +10435,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" ht="15">
       <c r="A250" t="s">
         <v>1021</v>
       </c>
@@ -10449,7 +10458,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:7" ht="15">
       <c r="A251" t="s">
         <v>1025</v>
       </c>
@@ -10472,7 +10481,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" ht="15">
       <c r="A252" t="s">
         <v>1029</v>
       </c>
@@ -10495,7 +10504,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" ht="15">
       <c r="A253" t="s">
         <v>1033</v>
       </c>
@@ -10518,7 +10527,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" ht="15">
       <c r="A254" t="s">
         <v>1037</v>
       </c>
@@ -10541,7 +10550,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" ht="15">
       <c r="A255" t="s">
         <v>1041</v>
       </c>
@@ -10564,7 +10573,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" ht="15">
       <c r="A256" t="s">
         <v>1045</v>
       </c>
@@ -10587,7 +10596,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" ht="15">
       <c r="A257" t="s">
         <v>1049</v>
       </c>
@@ -10610,7 +10619,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" ht="15">
       <c r="A258" t="s">
         <v>1053</v>
       </c>
@@ -10633,7 +10642,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" ht="15">
       <c r="A259" t="s">
         <v>1057</v>
       </c>
@@ -10656,7 +10665,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" ht="15">
       <c r="A260" t="s">
         <v>1061</v>
       </c>
@@ -10679,7 +10688,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" ht="15">
       <c r="A261" t="s">
         <v>1065</v>
       </c>
@@ -10702,7 +10711,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" ht="15">
       <c r="A262" t="s">
         <v>1072</v>
       </c>
@@ -10725,7 +10734,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" ht="15">
       <c r="A263" t="s">
         <v>1076</v>
       </c>
@@ -10748,7 +10757,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" ht="15">
       <c r="A264" t="s">
         <v>1080</v>
       </c>
@@ -10771,7 +10780,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:7" ht="15">
       <c r="A265" t="s">
         <v>1084</v>
       </c>
@@ -10794,7 +10803,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:7" ht="15">
       <c r="A266" t="s">
         <v>1088</v>
       </c>
@@ -10817,7 +10826,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:7" ht="15">
       <c r="A267" t="s">
         <v>1092</v>
       </c>
@@ -10840,7 +10849,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" ht="15">
       <c r="A268" t="s">
         <v>1096</v>
       </c>
@@ -10863,7 +10872,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:7" ht="15">
       <c r="A269" t="s">
         <v>1100</v>
       </c>
@@ -10886,7 +10895,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:7" ht="15">
       <c r="A270" t="s">
         <v>1104</v>
       </c>
@@ -10909,7 +10918,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:7" ht="15">
       <c r="A271" t="s">
         <v>1111</v>
       </c>
@@ -10932,7 +10941,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" ht="15">
       <c r="A272" t="s">
         <v>1115</v>
       </c>
@@ -10955,7 +10964,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" ht="15">
       <c r="A273" t="s">
         <v>1119</v>
       </c>
@@ -10978,7 +10987,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7" ht="15">
       <c r="A274" t="s">
         <v>1123</v>
       </c>
@@ -11001,7 +11010,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7" ht="15">
       <c r="A275" t="s">
         <v>1127</v>
       </c>
@@ -11024,7 +11033,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" ht="15">
       <c r="A276" t="s">
         <v>1131</v>
       </c>
@@ -11047,7 +11056,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" ht="15">
       <c r="A277" t="s">
         <v>1135</v>
       </c>
@@ -11070,7 +11079,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" ht="15">
       <c r="A278" t="s">
         <v>1139</v>
       </c>
@@ -11093,7 +11102,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" ht="15">
       <c r="A279" t="s">
         <v>1143</v>
       </c>
@@ -11116,7 +11125,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" ht="15">
       <c r="A280" t="s">
         <v>1147</v>
       </c>
@@ -11139,7 +11148,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" ht="15">
       <c r="A281" t="s">
         <v>1151</v>
       </c>
@@ -11162,7 +11171,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" ht="15">
       <c r="A282" t="s">
         <v>1155</v>
       </c>
@@ -11185,7 +11194,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" ht="15">
       <c r="A283" t="s">
         <v>1159</v>
       </c>
@@ -11208,7 +11217,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:7" ht="15">
       <c r="A284" t="s">
         <v>1163</v>
       </c>
@@ -11231,7 +11240,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" ht="15">
       <c r="A285" t="s">
         <v>1167</v>
       </c>
@@ -11254,7 +11263,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" ht="15">
       <c r="A286" t="s">
         <v>1171</v>
       </c>
@@ -11277,7 +11286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" ht="15">
       <c r="A287" t="s">
         <v>1177</v>
       </c>
@@ -11300,7 +11309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:7" ht="15">
       <c r="A288" t="s">
         <v>1181</v>
       </c>
@@ -11323,7 +11332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:7" ht="15">
       <c r="A289" t="s">
         <v>1185</v>
       </c>
@@ -11346,7 +11355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:7" ht="15">
       <c r="A290" t="s">
         <v>1189</v>
       </c>
@@ -11369,7 +11378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:7" ht="15">
       <c r="A291" t="s">
         <v>1193</v>
       </c>
@@ -11392,7 +11401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:7" ht="15">
       <c r="A292" t="s">
         <v>1196</v>
       </c>
@@ -11415,7 +11424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:7" ht="15">
       <c r="A293" t="s">
         <v>1200</v>
       </c>
@@ -11438,7 +11447,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:7" ht="15">
       <c r="A294" t="s">
         <v>1206</v>
       </c>
@@ -11461,7 +11470,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:7" ht="15">
       <c r="A295" t="s">
         <v>1210</v>
       </c>
@@ -11484,7 +11493,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:7" ht="15">
       <c r="A296" t="s">
         <v>1214</v>
       </c>
@@ -11507,7 +11516,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:7" ht="15">
       <c r="A297" t="s">
         <v>1218</v>
       </c>
@@ -11530,7 +11539,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:7" ht="15">
       <c r="A298" t="s">
         <v>1222</v>
       </c>
@@ -11553,7 +11562,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:7" ht="15">
       <c r="A299" t="s">
         <v>1226</v>
       </c>
@@ -11576,7 +11585,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:7" ht="15">
       <c r="A300" t="s">
         <v>1230</v>
       </c>
@@ -11599,7 +11608,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:7" ht="15">
       <c r="A301" t="s">
         <v>1234</v>
       </c>
@@ -11622,7 +11631,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:7" ht="15">
       <c r="A302" t="s">
         <v>1238</v>
       </c>
@@ -11645,7 +11654,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:7" ht="15">
       <c r="A303" t="s">
         <v>1242</v>
       </c>
@@ -11668,7 +11677,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:7" ht="15">
       <c r="A304" t="s">
         <v>1249</v>
       </c>
@@ -11691,7 +11700,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:7" ht="15">
       <c r="A305" t="s">
         <v>1253</v>
       </c>
@@ -11714,7 +11723,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:7" ht="15">
       <c r="A306" t="s">
         <v>1257</v>
       </c>
@@ -11737,7 +11746,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:7" ht="15">
       <c r="A307" t="s">
         <v>1261</v>
       </c>
@@ -11760,7 +11769,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:7" ht="15">
       <c r="A308" t="s">
         <v>1265</v>
       </c>
@@ -11783,7 +11792,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:7" ht="15">
       <c r="A309" t="s">
         <v>1269</v>
       </c>
@@ -11806,7 +11815,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:7" ht="15">
       <c r="A310" t="s">
         <v>1273</v>
       </c>
@@ -11829,7 +11838,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:7" ht="15">
       <c r="A311" t="s">
         <v>35</v>
       </c>
@@ -11852,7 +11861,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:7" ht="15">
       <c r="A312" t="s">
         <v>21</v>
       </c>
@@ -11875,7 +11884,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:7" ht="15">
       <c r="A313" t="s">
         <v>43</v>
       </c>
@@ -11898,7 +11907,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:7" ht="15">
       <c r="A314" t="s">
         <v>47</v>
       </c>
@@ -11921,7 +11930,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:7" ht="15">
       <c r="A315" t="s">
         <v>50</v>
       </c>
@@ -11944,7 +11953,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:7" ht="15">
       <c r="A316" t="s">
         <v>27</v>
       </c>
@@ -11967,7 +11976,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:7" ht="15">
       <c r="A317" t="s">
         <v>58</v>
       </c>
@@ -11990,7 +11999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:7" ht="15">
       <c r="A318" t="s">
         <v>54</v>
       </c>
@@ -12013,7 +12022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:7" ht="15">
       <c r="A319" t="s">
         <v>62</v>
       </c>
@@ -12036,7 +12045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:7" ht="15">
       <c r="A320" t="s">
         <v>39</v>
       </c>
@@ -12059,7 +12068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:7" ht="15">
       <c r="A321" t="s">
         <v>1309</v>
       </c>
@@ -12082,7 +12091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:7" ht="15">
       <c r="A322" t="s">
         <v>1313</v>
       </c>
@@ -12105,7 +12114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:7" ht="15">
       <c r="A323" t="s">
         <v>1316</v>
       </c>
@@ -12128,7 +12137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:7" ht="15">
       <c r="A324" t="s">
         <v>1320</v>
       </c>
@@ -12151,7 +12160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:7" ht="15">
       <c r="A325" t="s">
         <v>1324</v>
       </c>
@@ -12174,7 +12183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:7" ht="15">
       <c r="A326" t="s">
         <v>1330</v>
       </c>
@@ -12197,7 +12206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:7" ht="15">
       <c r="A327" t="s">
         <v>1334</v>
       </c>
@@ -12220,7 +12229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:7" ht="15">
       <c r="A328" t="s">
         <v>1338</v>
       </c>
@@ -12243,7 +12252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:7" ht="15">
       <c r="A329" t="s">
         <v>1342</v>
       </c>
@@ -12266,7 +12275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:7" ht="15">
       <c r="A330" t="s">
         <v>1346</v>
       </c>
@@ -12289,7 +12298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:7" ht="15">
       <c r="A331" t="s">
         <v>1352</v>
       </c>
@@ -12312,7 +12321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:7" ht="15">
       <c r="A332" t="s">
         <v>1356</v>
       </c>
@@ -12335,7 +12344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:7" ht="15">
       <c r="A333" t="s">
         <v>1360</v>
       </c>
@@ -12358,7 +12367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:7" ht="15">
       <c r="A334" t="s">
         <v>1364</v>
       </c>
@@ -12381,7 +12390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:7" ht="15">
       <c r="A335" t="s">
         <v>1368</v>
       </c>
@@ -12404,7 +12413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:7" ht="15">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -12427,7 +12436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:7" ht="15">
       <c r="A337" t="s">
         <v>1375</v>
       </c>
@@ -12450,7 +12459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:7" ht="15">
       <c r="A338" t="s">
         <v>1379</v>
       </c>
@@ -12473,7 +12482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:7" ht="15">
       <c r="A339" t="s">
         <v>1383</v>
       </c>
@@ -12496,7 +12505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:7" ht="15">
       <c r="A340" t="s">
         <v>1387</v>
       </c>
@@ -12519,7 +12528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:7" ht="15">
       <c r="A341" t="s">
         <v>1391</v>
       </c>
@@ -12542,7 +12551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:7" ht="15">
       <c r="A342" t="s">
         <v>1395</v>
       </c>
@@ -12565,7 +12574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:7" ht="15">
       <c r="A343" t="s">
         <v>1399</v>
       </c>
@@ -12588,7 +12597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:7" ht="15">
       <c r="A344" t="s">
         <v>1403</v>
       </c>
@@ -12611,7 +12620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:7" ht="15">
       <c r="A345" t="s">
         <v>1404</v>
       </c>
@@ -12634,7 +12643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:7" ht="15">
       <c r="A346" t="s">
         <v>1409</v>
       </c>
@@ -12657,7 +12666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:7" ht="15">
       <c r="A347" t="s">
         <v>1411</v>
       </c>
@@ -12680,7 +12689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:7" ht="15">
       <c r="A348" t="s">
         <v>1413</v>
       </c>
@@ -12703,7 +12712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:7" ht="15">
       <c r="A349" t="s">
         <v>1418</v>
       </c>
@@ -12726,7 +12735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:7" ht="15">
       <c r="A350" t="s">
         <v>88</v>
       </c>
@@ -12749,7 +12758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:7" ht="15">
       <c r="A351" t="s">
         <v>99</v>
       </c>
@@ -12772,7 +12781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:7" ht="15">
       <c r="A352" t="s">
         <v>66</v>
       </c>
@@ -12795,7 +12804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:7" ht="15">
       <c r="A353" t="s">
         <v>72</v>
       </c>
@@ -12818,7 +12827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:7" ht="15">
       <c r="A354" t="s">
         <v>76</v>
       </c>
@@ -12841,7 +12850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:7" ht="15">
       <c r="A355" t="s">
         <v>92</v>
       </c>
@@ -12864,7 +12873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:7" ht="15">
       <c r="A356" t="s">
         <v>80</v>
       </c>
@@ -12887,7 +12896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:7" ht="15">
       <c r="A357" t="s">
         <v>84</v>
       </c>
@@ -12910,7 +12919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:7" ht="15">
       <c r="A358" t="s">
         <v>103</v>
       </c>
@@ -12933,7 +12942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:7" ht="15">
       <c r="A359" t="s">
         <v>107</v>
       </c>
@@ -12956,7 +12965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:7" ht="15">
       <c r="A360" t="s">
         <v>96</v>
       </c>
@@ -12979,7 +12988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:7" ht="15">
       <c r="A361" t="s">
         <v>1434</v>
       </c>
@@ -13002,7 +13011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:7" ht="15">
       <c r="A362" t="s">
         <v>1436</v>
       </c>
@@ -13025,7 +13034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:7" ht="15">
       <c r="A363" t="s">
         <v>1438</v>
       </c>
@@ -13048,7 +13057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:7" ht="15">
       <c r="A364" t="s">
         <v>1440</v>
       </c>
@@ -13071,7 +13080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:7" ht="15">
       <c r="A365" t="s">
         <v>1442</v>
       </c>
@@ -13094,7 +13103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:7" ht="15">
       <c r="A366" t="s">
         <v>1444</v>
       </c>
@@ -13117,7 +13126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:7" ht="15">
       <c r="A367" t="s">
         <v>1446</v>
       </c>
@@ -13140,7 +13149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:7" ht="15">
       <c r="A368" t="s">
         <v>1448</v>
       </c>
@@ -13163,7 +13172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:7" ht="15">
       <c r="A369" t="s">
         <v>1450</v>
       </c>
@@ -13186,7 +13195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:7" ht="15">
       <c r="A370" t="s">
         <v>1452</v>
       </c>
@@ -13209,7 +13218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:7" ht="15">
       <c r="A371" t="s">
         <v>685</v>
       </c>
@@ -13232,7 +13241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:7" ht="15">
       <c r="A372" t="s">
         <v>631</v>
       </c>
@@ -13255,7 +13264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:7" ht="15">
       <c r="A373" t="s">
         <v>649</v>
       </c>
@@ -13279,5 +13288,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>